--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/10 INTEGRACION EGRESOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/10 INTEGRACION EGRESOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C660D-6161-4113-9F82-0044D21C6E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD7391-B360-483B-83DD-947FEC0D4557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Hecho por:</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Revisado:</t>
   </si>
   <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
     <t>Parametros a agregar:</t>
   </si>
   <si>
@@ -65,16 +62,22 @@
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">      Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        INTEGRACION EGRESOS</t>
-  </si>
-  <si>
     <t>5. Otros</t>
   </si>
   <si>
     <t>A-10</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>INTEGRACION EGRESOS</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -259,6 +262,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,78 +287,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE33548-7143-4213-B849-AB31E3727632}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="409575"/>
-          <a:ext cx="1304925" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,7 +628,7 @@
   <dimension ref="B1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,7 +663,9 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -733,15 +675,15 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="1"/>
       <c r="G3" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -750,10 +692,10 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="1"/>
@@ -767,8 +709,8 @@
     <row r="5" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
+      <c r="D5" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="1"/>
@@ -782,8 +724,8 @@
     <row r="6" spans="2:22" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="D6" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="15" t="s">
@@ -853,7 +795,7 @@
     </row>
     <row r="10" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -862,7 +804,7 @@
     </row>
     <row r="11" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -871,7 +813,7 @@
     </row>
     <row r="12" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -880,7 +822,7 @@
     </row>
     <row r="13" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -889,27 +831,27 @@
     </row>
     <row r="14" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -924,10 +866,12 @@
     <row r="27" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="65" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>